--- a/capiq_data/in_process_data/IQ704674.xlsx
+++ b/capiq_data/in_process_data/IQ704674.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE70DDD-4C01-4EC9-9D7E-F6D710965E6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD03BBA-A1AF-4392-904A-CEF9D778F120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"3003ccf4-704f-44b3-85df-7ebb73f646ed"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c7dd351b-9f16-471e-958a-c56ccaf1284f"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$65</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$65</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$65</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$65</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$65</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$65</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$65</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$65</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$65</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$65</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$65</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$65</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$65</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$65</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$65</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$65</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$65</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$65</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$65</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$65</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$65</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$65</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$65</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$65</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$65</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$65</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,75 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +802,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38442</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>39115</v>
+        <v>20664</v>
       </c>
       <c r="E2">
-        <v>13157</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1737</v>
+        <v>665.5</v>
       </c>
       <c r="G2">
-        <v>44296</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>79787</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15339</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>18188</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4082</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +841,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>36838</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>57280</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>30684</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>353</v>
+        <v>58</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38442</v>
       </c>
       <c r="S2">
-        <v>57656</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>22507</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1463</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-1927</v>
+        <v>472</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2775</v>
+        <v>108</v>
       </c>
       <c r="Y2">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>141</v>
+        <v>-8</v>
       </c>
       <c r="AA2">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38533</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1093</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>44226</v>
+        <v>20664</v>
       </c>
       <c r="E3">
-        <v>19708</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1435</v>
+        <v>665.5</v>
       </c>
       <c r="G3">
-        <v>46746</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>83589</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17032</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>18657</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5004</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-505</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>39163</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>59972</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>32621</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-55</v>
+        <v>58</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38533</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>23617</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1408</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-738</v>
+        <v>472</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>1388</v>
+        <v>108</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-206</v>
+        <v>-8</v>
       </c>
       <c r="AA3">
-        <v>1093</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38625</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1381</v>
+        <v>116</v>
       </c>
       <c r="D4">
-        <v>47894</v>
+        <v>23640</v>
       </c>
       <c r="E4">
-        <v>13845</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1274</v>
+        <v>695</v>
       </c>
       <c r="G4">
-        <v>43748</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>81363</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17445</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>17542</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1702</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1007,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>29708</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>49228</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>24088</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>168</v>
+        <v>-18</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38625</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>32135</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1576</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1372</v>
+        <v>-659</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-627</v>
+        <v>978</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-203</v>
+        <v>17</v>
       </c>
       <c r="AA4">
-        <v>1381</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38717</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>787</v>
+        <v>156</v>
       </c>
       <c r="D5">
-        <v>47016</v>
+        <v>26063</v>
       </c>
       <c r="E5">
-        <v>16546</v>
+        <v>7978</v>
       </c>
       <c r="F5">
-        <v>752.5</v>
+        <v>852</v>
       </c>
       <c r="G5">
-        <v>45731</v>
+        <v>24767</v>
       </c>
       <c r="H5">
-        <v>86165</v>
+        <v>32381</v>
       </c>
       <c r="I5">
-        <v>17308</v>
+        <v>11832</v>
       </c>
       <c r="J5">
-        <v>19566</v>
+        <v>4344</v>
       </c>
       <c r="K5">
-        <v>4447</v>
+        <v>7390</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1090,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>31476</v>
+        <v>19882</v>
       </c>
       <c r="O5">
-        <v>53830</v>
+        <v>25584</v>
       </c>
       <c r="P5">
-        <v>28159</v>
+        <v>12294</v>
       </c>
       <c r="Q5">
-        <v>-135.5</v>
+        <v>28</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38717</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>32335</v>
+        <v>6797</v>
       </c>
       <c r="U5">
-        <v>1305</v>
+        <v>346</v>
       </c>
       <c r="V5">
-        <v>-488.5</v>
+        <v>-424</v>
       </c>
       <c r="W5">
-        <v>-173</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1557</v>
+        <v>1130</v>
       </c>
       <c r="Y5">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-177.5</v>
+        <v>-972</v>
       </c>
       <c r="AA5">
-        <v>787</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38807</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>787</v>
+        <v>236</v>
       </c>
       <c r="D6">
-        <v>47016</v>
+        <v>24743</v>
       </c>
       <c r="E6">
-        <v>16546</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>752.5</v>
+        <v>1317</v>
       </c>
       <c r="G6">
-        <v>45731</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>86165</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17308</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>19566</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4447</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-279</v>
       </c>
       <c r="N6">
-        <v>31476</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>53830</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>28159</v>
+        <v>12294</v>
       </c>
       <c r="Q6">
-        <v>-135.5</v>
+        <v>133</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38807</v>
       </c>
       <c r="S6">
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>32335</v>
+        <v>6797</v>
       </c>
       <c r="U6">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>-488.5</v>
+        <v>-334</v>
       </c>
       <c r="W6">
-        <v>-173</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1557</v>
+        <v>781</v>
       </c>
       <c r="Y6">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-177.5</v>
+        <v>-42</v>
       </c>
       <c r="AA6">
-        <v>787</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38898</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1137.5</v>
+        <v>747</v>
       </c>
       <c r="D7">
-        <v>53978.5</v>
+        <v>31165</v>
       </c>
       <c r="E7">
-        <v>17576</v>
+        <v>9389</v>
       </c>
       <c r="F7">
-        <v>1069</v>
+        <v>1378</v>
       </c>
       <c r="G7">
-        <v>46681</v>
+        <v>27105</v>
       </c>
       <c r="H7">
-        <v>93665</v>
+        <v>40264</v>
       </c>
       <c r="I7">
-        <v>18660</v>
+        <v>14714</v>
       </c>
       <c r="J7">
-        <v>20226</v>
+        <v>6441</v>
       </c>
       <c r="K7">
-        <v>4438</v>
+        <v>5807</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1256,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>33261</v>
+        <v>21327</v>
       </c>
       <c r="O7">
-        <v>58817</v>
+        <v>30319</v>
       </c>
       <c r="P7">
-        <v>29312</v>
+        <v>12833</v>
       </c>
       <c r="Q7">
-        <v>93.5</v>
+        <v>142</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38898</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>34848</v>
+        <v>9945</v>
       </c>
       <c r="U7">
-        <v>1492</v>
+        <v>621</v>
       </c>
       <c r="V7">
-        <v>1167.5</v>
+        <v>737</v>
       </c>
       <c r="W7">
-        <v>-346</v>
+        <v>-2</v>
       </c>
       <c r="X7">
-        <v>194</v>
+        <v>-2069</v>
       </c>
       <c r="Y7">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>-96</v>
+        <v>1674</v>
       </c>
       <c r="AA7">
-        <v>1137.5</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38990</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1137.5</v>
+        <v>-516</v>
       </c>
       <c r="D8">
-        <v>53978.5</v>
+        <v>30616</v>
       </c>
       <c r="E8">
-        <v>17576</v>
+        <v>16290</v>
       </c>
       <c r="F8">
-        <v>1069</v>
+        <v>1273</v>
       </c>
       <c r="G8">
-        <v>46681</v>
+        <v>26920</v>
       </c>
       <c r="H8">
-        <v>93665</v>
+        <v>40830</v>
       </c>
       <c r="I8">
-        <v>18660</v>
+        <v>14528</v>
       </c>
       <c r="J8">
-        <v>20226</v>
+        <v>6363</v>
       </c>
       <c r="K8">
-        <v>4438</v>
+        <v>5763</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1339,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>33261</v>
+        <v>21158</v>
       </c>
       <c r="O8">
-        <v>58817</v>
+        <v>30051</v>
       </c>
       <c r="P8">
-        <v>29312</v>
+        <v>12710</v>
       </c>
       <c r="Q8">
-        <v>93.5</v>
+        <v>85</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38990</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>34848</v>
+        <v>10779</v>
       </c>
       <c r="U8">
-        <v>1492</v>
+        <v>706</v>
       </c>
       <c r="V8">
-        <v>1167.5</v>
+        <v>1018</v>
       </c>
       <c r="W8">
-        <v>-346</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>194</v>
+        <v>-596</v>
       </c>
       <c r="Y8">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-96</v>
+        <v>7</v>
       </c>
       <c r="AA8">
-        <v>1137.5</v>
+        <v>-516</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>39082</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-635.5</v>
+        <v>397</v>
       </c>
       <c r="D9">
-        <v>53239.5</v>
+        <v>30006</v>
       </c>
       <c r="E9">
-        <v>19437</v>
+        <v>11689</v>
       </c>
       <c r="F9">
-        <v>931.5</v>
+        <v>1883</v>
       </c>
       <c r="G9">
-        <v>54112</v>
+        <v>29941</v>
       </c>
       <c r="H9">
-        <v>105564</v>
+        <v>47068</v>
       </c>
       <c r="I9">
-        <v>22987</v>
+        <v>15635</v>
       </c>
       <c r="J9">
-        <v>18795</v>
+        <v>7578</v>
       </c>
       <c r="K9">
-        <v>10203</v>
+        <v>8565</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,164 +1422,164 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>47143</v>
+        <v>25182</v>
       </c>
       <c r="O9">
-        <v>71391</v>
+        <v>35395</v>
       </c>
       <c r="P9">
-        <v>38175</v>
+        <v>16755</v>
       </c>
       <c r="Q9">
-        <v>645</v>
+        <v>90</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>39082</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>34173</v>
+        <v>11673</v>
       </c>
       <c r="U9">
-        <v>2782</v>
+        <v>796</v>
       </c>
       <c r="V9">
-        <v>1023</v>
+        <v>-134</v>
       </c>
       <c r="W9">
-        <v>-187</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>3123.5</v>
+        <v>2959</v>
       </c>
       <c r="Y9">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-209</v>
+        <v>-2102</v>
       </c>
       <c r="AA9">
-        <v>-635.5</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>39172</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-635.5</v>
+        <v>337</v>
       </c>
       <c r="D10">
-        <v>53239.5</v>
+        <v>29974</v>
       </c>
       <c r="E10">
-        <v>19437</v>
+        <v>18188</v>
       </c>
       <c r="F10">
-        <v>931.5</v>
+        <v>1431</v>
       </c>
       <c r="G10">
-        <v>54112</v>
+        <v>28936</v>
       </c>
       <c r="H10">
-        <v>105564</v>
+        <v>47790</v>
       </c>
       <c r="I10">
-        <v>22987</v>
+        <v>15850</v>
       </c>
       <c r="J10">
-        <v>18795</v>
+        <v>8720</v>
       </c>
       <c r="K10">
-        <v>10203</v>
+        <v>6984</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-1051</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-915</v>
       </c>
       <c r="N10">
-        <v>47143</v>
+        <v>23856</v>
       </c>
       <c r="O10">
-        <v>71391</v>
+        <v>34455</v>
       </c>
       <c r="P10">
-        <v>38175</v>
+        <v>16380</v>
       </c>
       <c r="Q10">
-        <v>645</v>
+        <v>-141</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>39172</v>
       </c>
       <c r="S10">
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>34173</v>
+        <v>13335</v>
       </c>
       <c r="U10">
-        <v>2782</v>
+        <v>655</v>
       </c>
       <c r="V10">
-        <v>1023</v>
+        <v>782</v>
       </c>
       <c r="W10">
-        <v>-187</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>3123.5</v>
+        <v>-781</v>
       </c>
       <c r="Y10">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-209</v>
+        <v>23</v>
       </c>
       <c r="AA10">
-        <v>-635.5</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>39263</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-4693</v>
+        <v>340</v>
       </c>
       <c r="D11">
-        <v>56017.5</v>
+        <v>36658</v>
       </c>
       <c r="E11">
-        <v>19334</v>
+        <v>11434</v>
       </c>
       <c r="F11">
-        <v>1029</v>
+        <v>1640</v>
       </c>
       <c r="G11">
-        <v>56313</v>
+        <v>31872</v>
       </c>
       <c r="H11">
-        <v>155922</v>
+        <v>52866</v>
       </c>
       <c r="I11">
-        <v>25222</v>
+        <v>9611</v>
       </c>
       <c r="J11">
-        <v>38360</v>
+        <v>8773</v>
       </c>
       <c r="K11">
-        <v>8020</v>
+        <v>8762</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,164 +1588,164 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>46875</v>
+        <v>27374</v>
       </c>
       <c r="O11">
-        <v>102449</v>
+        <v>38186</v>
       </c>
       <c r="P11">
-        <v>54537</v>
+        <v>18303</v>
       </c>
       <c r="Q11">
-        <v>371.5</v>
+        <v>138</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>39263</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>53473</v>
+        <v>14680</v>
       </c>
       <c r="U11">
-        <v>3525</v>
+        <v>793</v>
       </c>
       <c r="V11">
-        <v>3299</v>
+        <v>195</v>
       </c>
       <c r="W11">
-        <v>-677.5</v>
+        <v>-2</v>
       </c>
       <c r="X11">
-        <v>-1519</v>
+        <v>1489</v>
       </c>
       <c r="Y11">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-55</v>
+        <v>-1052</v>
       </c>
       <c r="AA11">
-        <v>-4693</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>39355</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-4693</v>
+        <v>277</v>
       </c>
       <c r="D12">
-        <v>56017.5</v>
+        <v>36949</v>
       </c>
       <c r="E12">
-        <v>19334</v>
+        <v>22684</v>
       </c>
       <c r="F12">
-        <v>1029</v>
+        <v>1602</v>
       </c>
       <c r="G12">
-        <v>56313</v>
+        <v>35195</v>
       </c>
       <c r="H12">
-        <v>155922</v>
+        <v>57322</v>
       </c>
       <c r="I12">
-        <v>25222</v>
+        <v>20096</v>
       </c>
       <c r="J12">
-        <v>38360</v>
+        <v>9512</v>
       </c>
       <c r="K12">
-        <v>8020</v>
+        <v>8921</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-697</v>
       </c>
       <c r="N12">
-        <v>46875</v>
+        <v>30119</v>
       </c>
       <c r="O12">
-        <v>102449</v>
+        <v>41767</v>
       </c>
       <c r="P12">
-        <v>54537</v>
+        <v>19148</v>
       </c>
       <c r="Q12">
-        <v>371.5</v>
+        <v>-59</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>39355</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>53473</v>
+        <v>15555</v>
       </c>
       <c r="U12">
-        <v>3525</v>
+        <v>734</v>
       </c>
       <c r="V12">
-        <v>3299</v>
+        <v>449</v>
       </c>
       <c r="W12">
-        <v>-677.5</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-1519</v>
+        <v>408</v>
       </c>
       <c r="Y12">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-55</v>
+        <v>35</v>
       </c>
       <c r="AA12">
-        <v>-4693</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39447</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>670</v>
+        <v>154</v>
       </c>
       <c r="D13">
-        <v>60329.5</v>
+        <v>38762</v>
       </c>
       <c r="E13">
-        <v>18481</v>
+        <v>13956</v>
       </c>
       <c r="F13">
-        <v>1745.5</v>
+        <v>1602</v>
       </c>
       <c r="G13">
-        <v>59292</v>
+        <v>36882</v>
       </c>
       <c r="H13">
-        <v>154862</v>
+        <v>59955</v>
       </c>
       <c r="I13">
-        <v>25401</v>
+        <v>10425</v>
       </c>
       <c r="J13">
-        <v>38368</v>
+        <v>10023</v>
       </c>
       <c r="K13">
-        <v>7264</v>
+        <v>9624</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,164 +1754,164 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>46326</v>
+        <v>31467</v>
       </c>
       <c r="O13">
-        <v>102181</v>
+        <v>43384</v>
       </c>
       <c r="P13">
-        <v>55405</v>
+        <v>20405</v>
       </c>
       <c r="Q13">
-        <v>-338</v>
+        <v>-76</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39447</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>52681</v>
+        <v>16571</v>
       </c>
       <c r="U13">
-        <v>2849</v>
+        <v>658</v>
       </c>
       <c r="V13">
-        <v>1293</v>
+        <v>-19</v>
       </c>
       <c r="W13">
-        <v>-353.5</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>308</v>
+        <v>638</v>
       </c>
       <c r="Y13">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-17</v>
+        <v>-35</v>
       </c>
       <c r="AA13">
-        <v>670</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39538</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>670</v>
+        <v>215</v>
       </c>
       <c r="D14">
-        <v>60329.5</v>
+        <v>39914</v>
       </c>
       <c r="E14">
-        <v>18481</v>
+        <v>27803</v>
       </c>
       <c r="F14">
-        <v>1745.5</v>
+        <v>1558</v>
       </c>
       <c r="G14">
-        <v>59292</v>
+        <v>42409</v>
       </c>
       <c r="H14">
-        <v>154862</v>
+        <v>66623</v>
       </c>
       <c r="I14">
-        <v>25401</v>
+        <v>24947</v>
       </c>
       <c r="J14">
-        <v>38368</v>
+        <v>10717</v>
       </c>
       <c r="K14">
-        <v>7264</v>
+        <v>10235</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-213</v>
       </c>
       <c r="N14">
-        <v>46326</v>
+        <v>36263</v>
       </c>
       <c r="O14">
-        <v>102181</v>
+        <v>48795</v>
       </c>
       <c r="P14">
-        <v>55405</v>
+        <v>21666</v>
       </c>
       <c r="Q14">
-        <v>-338</v>
+        <v>133</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39538</v>
       </c>
       <c r="S14">
-        <v>110378</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>52681</v>
+        <v>17828</v>
       </c>
       <c r="U14">
-        <v>2849</v>
+        <v>791</v>
       </c>
       <c r="V14">
-        <v>1293</v>
+        <v>23</v>
       </c>
       <c r="W14">
-        <v>-353.5</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>308</v>
+        <v>865</v>
       </c>
       <c r="Y14">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-17</v>
+        <v>-261</v>
       </c>
       <c r="AA14">
-        <v>670</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39629</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>860</v>
+        <v>135</v>
       </c>
       <c r="D15">
-        <v>57032</v>
+        <v>46261</v>
       </c>
       <c r="E15">
-        <v>17735</v>
+        <v>18122</v>
       </c>
       <c r="F15">
-        <v>1865</v>
+        <v>1534</v>
       </c>
       <c r="G15">
-        <v>60725</v>
+        <v>52787</v>
       </c>
       <c r="H15">
-        <v>158839</v>
+        <v>78351</v>
       </c>
       <c r="I15">
-        <v>25675</v>
+        <v>13992</v>
       </c>
       <c r="J15">
-        <v>40410</v>
+        <v>11894</v>
       </c>
       <c r="K15">
-        <v>8367</v>
+        <v>11412</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1920,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>47609</v>
+        <v>46170</v>
       </c>
       <c r="O15">
-        <v>105683</v>
+        <v>59492</v>
       </c>
       <c r="P15">
-        <v>57859</v>
+        <v>24062</v>
       </c>
       <c r="Q15">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39629</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>53156</v>
+        <v>18859</v>
       </c>
       <c r="U15">
-        <v>3237</v>
+        <v>1137</v>
       </c>
       <c r="V15">
-        <v>2218.5</v>
+        <v>-444</v>
       </c>
       <c r="W15">
-        <v>-728.5</v>
+        <v>-2</v>
       </c>
       <c r="X15">
-        <v>435</v>
+        <v>1687</v>
       </c>
       <c r="Y15">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-198.5</v>
+        <v>-407</v>
       </c>
       <c r="AA15">
-        <v>860</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39721</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>860</v>
+        <v>400</v>
       </c>
       <c r="D16">
-        <v>57032</v>
+        <v>50567</v>
       </c>
       <c r="E16">
-        <v>17735</v>
+        <v>30995</v>
       </c>
       <c r="F16">
-        <v>1865</v>
+        <v>1495</v>
       </c>
       <c r="G16">
-        <v>60725</v>
+        <v>43517</v>
       </c>
       <c r="H16">
-        <v>158839</v>
+        <v>71149</v>
       </c>
       <c r="I16">
-        <v>25675</v>
+        <v>27952</v>
       </c>
       <c r="J16">
-        <v>40410</v>
+        <v>14804</v>
       </c>
       <c r="K16">
-        <v>8367</v>
+        <v>6224</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2003,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>47609</v>
+        <v>35280</v>
       </c>
       <c r="O16">
-        <v>105683</v>
+        <v>51282</v>
       </c>
       <c r="P16">
-        <v>57859</v>
+        <v>21755</v>
       </c>
       <c r="Q16">
-        <v>194</v>
+        <v>-395</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39721</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>53156</v>
+        <v>19867</v>
       </c>
       <c r="U16">
-        <v>3237</v>
+        <v>742</v>
       </c>
       <c r="V16">
-        <v>2218.5</v>
+        <v>2383</v>
       </c>
       <c r="W16">
-        <v>-728.5</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>435</v>
+        <v>-2026</v>
       </c>
       <c r="Y16">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-198.5</v>
+        <v>-177</v>
       </c>
       <c r="AA16">
-        <v>860</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39813</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>294</v>
+        <v>-383</v>
       </c>
       <c r="D17">
-        <v>53504.5</v>
+        <v>15494</v>
       </c>
       <c r="E17">
-        <v>14825</v>
+        <v>10104</v>
       </c>
       <c r="F17">
-        <v>1499.5</v>
+        <v>545</v>
       </c>
       <c r="G17">
-        <v>53219</v>
+        <v>36508</v>
       </c>
       <c r="H17">
-        <v>152205</v>
+        <v>61311</v>
       </c>
       <c r="I17">
-        <v>25402</v>
+        <v>8519</v>
       </c>
       <c r="J17">
-        <v>40263</v>
+        <v>13071</v>
       </c>
       <c r="K17">
-        <v>4544</v>
+        <v>4483</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,164 +2086,164 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>43947</v>
+        <v>30706</v>
       </c>
       <c r="O17">
-        <v>100725</v>
+        <v>45000</v>
       </c>
       <c r="P17">
-        <v>53152</v>
+        <v>18394</v>
       </c>
       <c r="Q17">
-        <v>-206.5</v>
+        <v>84</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39813</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>51480</v>
+        <v>16311</v>
       </c>
       <c r="U17">
-        <v>2824</v>
+        <v>826</v>
       </c>
       <c r="V17">
-        <v>1849.5</v>
+        <v>3998</v>
       </c>
       <c r="W17">
-        <v>-393.5</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-2500</v>
+        <v>-3368</v>
       </c>
       <c r="Y17">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>43.5</v>
+        <v>-59</v>
       </c>
       <c r="AA17">
-        <v>294</v>
+        <v>-383</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39903</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>294</v>
+        <v>1579</v>
       </c>
       <c r="D18">
-        <v>53504.5</v>
+        <v>19955</v>
       </c>
       <c r="E18">
-        <v>14825</v>
+        <v>12745</v>
       </c>
       <c r="F18">
-        <v>1499.5</v>
+        <v>563</v>
       </c>
       <c r="G18">
-        <v>53219</v>
+        <v>32306</v>
       </c>
       <c r="H18">
-        <v>152205</v>
+        <v>60038</v>
       </c>
       <c r="I18">
-        <v>25402</v>
+        <v>9713</v>
       </c>
       <c r="J18">
-        <v>40263</v>
+        <v>12576</v>
       </c>
       <c r="K18">
-        <v>4544</v>
+        <v>5666</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-260</v>
       </c>
       <c r="N18">
-        <v>43947</v>
+        <v>27507</v>
       </c>
       <c r="O18">
-        <v>100725</v>
+        <v>43313</v>
       </c>
       <c r="P18">
-        <v>53152</v>
+        <v>19186</v>
       </c>
       <c r="Q18">
-        <v>-206.5</v>
+        <v>-215</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39903</v>
       </c>
       <c r="S18">
-        <v>106831</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>51480</v>
+        <v>16725</v>
       </c>
       <c r="U18">
-        <v>2824</v>
+        <v>611</v>
       </c>
       <c r="V18">
-        <v>1849.5</v>
+        <v>-544</v>
       </c>
       <c r="W18">
-        <v>-393.5</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-2500</v>
+        <v>923</v>
       </c>
       <c r="Y18">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>43.5</v>
+        <v>-135</v>
       </c>
       <c r="AA18">
-        <v>294</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39994</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-338</v>
+        <v>-729</v>
       </c>
       <c r="D19">
-        <v>36928.5</v>
+        <v>25287</v>
       </c>
       <c r="E19">
-        <v>13043</v>
+        <v>8919</v>
       </c>
       <c r="F19">
-        <v>906.5</v>
+        <v>819</v>
       </c>
       <c r="G19">
-        <v>51294</v>
+        <v>33773</v>
       </c>
       <c r="H19">
-        <v>148074</v>
+        <v>61802</v>
       </c>
       <c r="I19">
-        <v>27286</v>
+        <v>8330</v>
       </c>
       <c r="J19">
-        <v>38643</v>
+        <v>13167</v>
       </c>
       <c r="K19">
-        <v>2545</v>
+        <v>5860</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2252,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>45538</v>
+        <v>27591</v>
       </c>
       <c r="O19">
-        <v>99726</v>
+        <v>44122</v>
       </c>
       <c r="P19">
-        <v>50664</v>
+        <v>19936</v>
       </c>
       <c r="Q19">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39994</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>48348</v>
+        <v>17680</v>
       </c>
       <c r="U19">
-        <v>3062</v>
+        <v>900</v>
       </c>
       <c r="V19">
-        <v>3753</v>
+        <v>-136</v>
       </c>
       <c r="W19">
-        <v>-775.5</v>
+        <v>-2</v>
       </c>
       <c r="X19">
-        <v>-2082.5</v>
+        <v>248</v>
       </c>
       <c r="Y19">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-75.5</v>
+        <v>502</v>
       </c>
       <c r="AA19">
-        <v>-338</v>
+        <v>-729</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>40086</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-338</v>
+        <v>389</v>
       </c>
       <c r="D20">
-        <v>36928.5</v>
+        <v>30349</v>
       </c>
       <c r="E20">
-        <v>13043</v>
+        <v>14279</v>
       </c>
       <c r="F20">
-        <v>906.5</v>
+        <v>802</v>
       </c>
       <c r="G20">
-        <v>51294</v>
+        <v>34187</v>
       </c>
       <c r="H20">
-        <v>148074</v>
+        <v>62701</v>
       </c>
       <c r="I20">
-        <v>27286</v>
+        <v>11684</v>
       </c>
       <c r="J20">
-        <v>38643</v>
+        <v>14452</v>
       </c>
       <c r="K20">
-        <v>2545</v>
+        <v>4358</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2335,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>45538</v>
+        <v>26599</v>
       </c>
       <c r="O20">
-        <v>99726</v>
+        <v>44453</v>
       </c>
       <c r="P20">
-        <v>50664</v>
+        <v>19785</v>
       </c>
       <c r="Q20">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>40086</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>48348</v>
+        <v>18248</v>
       </c>
       <c r="U20">
-        <v>3062</v>
+        <v>978</v>
       </c>
       <c r="V20">
-        <v>3753</v>
+        <v>865</v>
       </c>
       <c r="W20">
-        <v>-775.5</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-2082.5</v>
+        <v>-435</v>
       </c>
       <c r="Y20">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-75.5</v>
+        <v>6</v>
       </c>
       <c r="AA20">
-        <v>-338</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>40178</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-2144</v>
+        <v>-256</v>
       </c>
       <c r="D21">
-        <v>36747</v>
+        <v>30773</v>
       </c>
       <c r="E21">
-        <v>10589</v>
+        <v>9471</v>
       </c>
       <c r="F21">
-        <v>502.5</v>
+        <v>1107</v>
       </c>
       <c r="G21">
-        <v>42198</v>
+        <v>38725</v>
       </c>
       <c r="H21">
-        <v>128485</v>
+        <v>66276</v>
       </c>
       <c r="I21">
-        <v>22404</v>
+        <v>9533</v>
       </c>
       <c r="J21">
-        <v>32556</v>
+        <v>16344</v>
       </c>
       <c r="K21">
-        <v>3559</v>
+        <v>3654</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,164 +2418,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>40872</v>
+        <v>30581</v>
       </c>
       <c r="O21">
-        <v>87142</v>
+        <v>48332</v>
       </c>
       <c r="P21">
-        <v>44189</v>
+        <v>24095</v>
       </c>
       <c r="Q21">
-        <v>-177.5</v>
+        <v>-118</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>40178</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>41343</v>
+        <v>17944</v>
       </c>
       <c r="U21">
-        <v>2707</v>
+        <v>860</v>
       </c>
       <c r="V21">
-        <v>2856</v>
+        <v>-3195</v>
       </c>
       <c r="W21">
-        <v>-388.5</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-1946.5</v>
+        <v>3472</v>
       </c>
       <c r="Y21">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="Z21">
-        <v>-22</v>
+        <v>-55</v>
       </c>
       <c r="AA21">
-        <v>-2144</v>
+        <v>-256</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>40268</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-2144</v>
+        <v>295</v>
       </c>
       <c r="D22">
-        <v>36747</v>
+        <v>31729</v>
       </c>
       <c r="E22">
-        <v>10589</v>
+        <v>15610</v>
       </c>
       <c r="F22">
-        <v>502.5</v>
+        <v>1102</v>
       </c>
       <c r="G22">
-        <v>42198</v>
+        <v>37530</v>
       </c>
       <c r="H22">
-        <v>128485</v>
+        <v>67535</v>
       </c>
       <c r="I22">
-        <v>22404</v>
+        <v>12229</v>
       </c>
       <c r="J22">
-        <v>32556</v>
+        <v>17942</v>
       </c>
       <c r="K22">
-        <v>3559</v>
+        <v>5487</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-1128</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="N22">
-        <v>40872</v>
+        <v>28234</v>
       </c>
       <c r="O22">
-        <v>87142</v>
+        <v>47897</v>
       </c>
       <c r="P22">
-        <v>44189</v>
+        <v>24474</v>
       </c>
       <c r="Q22">
-        <v>-177.5</v>
+        <v>577</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>40268</v>
       </c>
       <c r="S22">
-        <v>156468</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>41343</v>
+        <v>19638</v>
       </c>
       <c r="U22">
-        <v>2707</v>
+        <v>1437</v>
       </c>
       <c r="V22">
-        <v>2856</v>
+        <v>986</v>
       </c>
       <c r="W22">
-        <v>-388.5</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-1946.5</v>
+        <v>408</v>
       </c>
       <c r="Y22">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>-22</v>
+        <v>-253</v>
       </c>
       <c r="AA22">
-        <v>-2144</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>40359</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-184.5</v>
+        <v>785</v>
       </c>
       <c r="D23">
-        <v>34712.5</v>
+        <v>38278</v>
       </c>
       <c r="E23">
-        <v>8482</v>
+        <v>11537</v>
       </c>
       <c r="F23">
-        <v>300.5</v>
+        <v>767</v>
       </c>
       <c r="G23">
-        <v>46811</v>
+        <v>35404</v>
       </c>
       <c r="H23">
-        <v>127854</v>
+        <v>66452</v>
       </c>
       <c r="I23">
-        <v>21125</v>
+        <v>12563</v>
       </c>
       <c r="J23">
-        <v>29223</v>
+        <v>17631</v>
       </c>
       <c r="K23">
-        <v>3596</v>
+        <v>6273</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2584,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>43793</v>
+        <v>27707</v>
       </c>
       <c r="O23">
-        <v>86815</v>
+        <v>47125</v>
       </c>
       <c r="P23">
-        <v>38590</v>
+        <v>25100</v>
       </c>
       <c r="Q23">
-        <v>-9.5</v>
+        <v>93</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>40359</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>41039</v>
+        <v>19327</v>
       </c>
       <c r="U23">
-        <v>2535</v>
+        <v>1530</v>
       </c>
       <c r="V23">
-        <v>1750</v>
+        <v>2350</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1247</v>
+        <v>21</v>
       </c>
       <c r="Y23">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="AA23">
-        <v>-184.5</v>
+        <v>785</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40451</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-184.5</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>34712.5</v>
+        <v>35856</v>
       </c>
       <c r="E24">
-        <v>8482</v>
+        <v>18174</v>
       </c>
       <c r="F24">
-        <v>300.5</v>
+        <v>1019</v>
       </c>
       <c r="G24">
-        <v>46811</v>
+        <v>37253</v>
       </c>
       <c r="H24">
-        <v>127854</v>
+        <v>70136</v>
       </c>
       <c r="I24">
-        <v>21125</v>
+        <v>13234</v>
       </c>
       <c r="J24">
-        <v>29223</v>
+        <v>15109</v>
       </c>
       <c r="K24">
-        <v>3596</v>
+        <v>3919</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2667,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>43793</v>
+        <v>32612</v>
       </c>
       <c r="O24">
-        <v>86815</v>
+        <v>49599</v>
       </c>
       <c r="P24">
-        <v>38590</v>
+        <v>27712</v>
       </c>
       <c r="Q24">
-        <v>-9.5</v>
+        <v>-420</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40451</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>41039</v>
+        <v>20537</v>
       </c>
       <c r="U24">
-        <v>2535</v>
+        <v>1110</v>
       </c>
       <c r="V24">
-        <v>1750</v>
+        <v>-1548</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-1247</v>
+        <v>2043</v>
       </c>
       <c r="Y24">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>3</v>
+        <v>-165</v>
       </c>
       <c r="AA24">
-        <v>-184.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40543</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>874</v>
+        <v>111</v>
       </c>
       <c r="D25">
-        <v>41761.5</v>
+        <v>39115</v>
       </c>
       <c r="E25">
-        <v>10926</v>
+        <v>13157</v>
       </c>
       <c r="F25">
-        <v>1292</v>
+        <v>1737</v>
       </c>
       <c r="G25">
-        <v>43412</v>
+        <v>44296</v>
       </c>
       <c r="H25">
-        <v>124600</v>
+        <v>79787</v>
       </c>
       <c r="I25">
-        <v>25105</v>
+        <v>15339</v>
       </c>
       <c r="J25">
-        <v>22862</v>
+        <v>18188</v>
       </c>
       <c r="K25">
-        <v>2990</v>
+        <v>4082</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,164 +2750,164 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>43367</v>
+        <v>36838</v>
       </c>
       <c r="O25">
-        <v>80819</v>
+        <v>57280</v>
       </c>
       <c r="P25">
-        <v>33261</v>
+        <v>30684</v>
       </c>
       <c r="Q25">
-        <v>-90</v>
+        <v>353</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40543</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>57656</v>
       </c>
       <c r="T25">
-        <v>43781</v>
+        <v>22507</v>
       </c>
       <c r="U25">
-        <v>2518</v>
+        <v>1463</v>
       </c>
       <c r="V25">
-        <v>666.5</v>
+        <v>-1927</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-3067.5</v>
+        <v>2775</v>
       </c>
       <c r="Y25">
-        <v>326</v>
+        <v>63</v>
       </c>
       <c r="Z25">
-        <v>-9</v>
+        <v>141</v>
       </c>
       <c r="AA25">
-        <v>874</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40633</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>874</v>
+        <v>1093</v>
       </c>
       <c r="D26">
-        <v>41761.5</v>
+        <v>44226</v>
       </c>
       <c r="E26">
-        <v>10926</v>
+        <v>19708</v>
       </c>
       <c r="F26">
-        <v>1292</v>
+        <v>1435</v>
       </c>
       <c r="G26">
-        <v>43412</v>
+        <v>46746</v>
       </c>
       <c r="H26">
-        <v>124600</v>
+        <v>83589</v>
       </c>
       <c r="I26">
-        <v>25105</v>
+        <v>17032</v>
       </c>
       <c r="J26">
-        <v>22862</v>
+        <v>18657</v>
       </c>
       <c r="K26">
-        <v>2990</v>
+        <v>5004</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-505</v>
       </c>
       <c r="N26">
-        <v>43367</v>
+        <v>39163</v>
       </c>
       <c r="O26">
-        <v>80819</v>
+        <v>59972</v>
       </c>
       <c r="P26">
-        <v>33261</v>
+        <v>32621</v>
       </c>
       <c r="Q26">
-        <v>-90</v>
+        <v>-55</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40633</v>
       </c>
       <c r="S26">
-        <v>154832</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>43781</v>
+        <v>23617</v>
       </c>
       <c r="U26">
-        <v>2518</v>
+        <v>1408</v>
       </c>
       <c r="V26">
-        <v>666.5</v>
+        <v>-738</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-3067.5</v>
+        <v>1388</v>
       </c>
       <c r="Y26">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>-9</v>
+        <v>-206</v>
       </c>
       <c r="AA26">
-        <v>874</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40724</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1225</v>
+        <v>1381</v>
       </c>
       <c r="D27">
-        <v>50143.5</v>
+        <v>47894</v>
       </c>
       <c r="E27">
-        <v>9753</v>
+        <v>13845</v>
       </c>
       <c r="F27">
-        <v>1876</v>
+        <v>1274</v>
       </c>
       <c r="G27">
-        <v>39377</v>
+        <v>43748</v>
       </c>
       <c r="H27">
-        <v>119098</v>
+        <v>81363</v>
       </c>
       <c r="I27">
-        <v>23408</v>
+        <v>17445</v>
       </c>
       <c r="J27">
-        <v>22685</v>
+        <v>17542</v>
       </c>
       <c r="K27">
-        <v>1826</v>
+        <v>1702</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2916,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>37445</v>
+        <v>29708</v>
       </c>
       <c r="O27">
-        <v>74957</v>
+        <v>49228</v>
       </c>
       <c r="P27">
-        <v>30446</v>
+        <v>24088</v>
       </c>
       <c r="Q27">
-        <v>-258</v>
+        <v>168</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40724</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>44141</v>
+        <v>32135</v>
       </c>
       <c r="U27">
-        <v>1973</v>
+        <v>1576</v>
       </c>
       <c r="V27">
-        <v>2451.5</v>
+        <v>1372</v>
       </c>
       <c r="W27">
-        <v>-249.5</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-2241</v>
+        <v>-627</v>
       </c>
       <c r="Y27">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>17.5</v>
+        <v>-203</v>
       </c>
       <c r="AA27">
-        <v>1225</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40816</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1225</v>
+        <v>787</v>
       </c>
       <c r="D28">
-        <v>50143.5</v>
+        <v>47016</v>
       </c>
       <c r="E28">
-        <v>9753</v>
+        <v>16546</v>
       </c>
       <c r="F28">
-        <v>1876</v>
+        <v>752.5</v>
       </c>
       <c r="G28">
-        <v>39377</v>
+        <v>45731</v>
       </c>
       <c r="H28">
-        <v>119098</v>
+        <v>86165</v>
       </c>
       <c r="I28">
-        <v>23408</v>
+        <v>17308</v>
       </c>
       <c r="J28">
-        <v>22685</v>
+        <v>19566</v>
       </c>
       <c r="K28">
-        <v>1826</v>
+        <v>4447</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +2999,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>37445</v>
+        <v>31476</v>
       </c>
       <c r="O28">
-        <v>74957</v>
+        <v>53830</v>
       </c>
       <c r="P28">
-        <v>30446</v>
+        <v>28159</v>
       </c>
       <c r="Q28">
-        <v>-258</v>
+        <v>-135.5</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40816</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>44141</v>
+        <v>32335</v>
       </c>
       <c r="U28">
-        <v>1973</v>
+        <v>1305</v>
       </c>
       <c r="V28">
-        <v>2451.5</v>
+        <v>-488.5</v>
       </c>
       <c r="W28">
-        <v>-249.5</v>
+        <v>-173</v>
       </c>
       <c r="X28">
-        <v>-2241</v>
+        <v>1557</v>
       </c>
       <c r="Y28">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="Z28">
-        <v>17.5</v>
+        <v>-177.5</v>
       </c>
       <c r="AA28">
-        <v>1225</v>
+        <v>787</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40908</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1663.5</v>
+        <v>787</v>
       </c>
       <c r="D29">
-        <v>52594.5</v>
+        <v>47016</v>
       </c>
       <c r="E29">
-        <v>12432</v>
+        <v>16546</v>
       </c>
       <c r="F29">
-        <v>2014.5</v>
+        <v>752.5</v>
       </c>
       <c r="G29">
-        <v>49726</v>
+        <v>45731</v>
       </c>
       <c r="H29">
-        <v>135593</v>
+        <v>86165</v>
       </c>
       <c r="I29">
-        <v>11709</v>
+        <v>17308</v>
       </c>
       <c r="J29">
-        <v>24204</v>
+        <v>19566</v>
       </c>
       <c r="K29">
-        <v>2290</v>
+        <v>4447</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3082,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>44414</v>
+        <v>31476</v>
       </c>
       <c r="O29">
-        <v>86138</v>
+        <v>53830</v>
       </c>
       <c r="P29">
-        <v>33987</v>
+        <v>28159</v>
       </c>
       <c r="Q29">
-        <v>78</v>
+        <v>-135.5</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40908</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="T29">
-        <v>49455</v>
+        <v>32335</v>
       </c>
       <c r="U29">
-        <v>2124</v>
+        <v>1305</v>
       </c>
       <c r="V29">
-        <v>-43</v>
+        <v>-488.5</v>
       </c>
       <c r="W29">
-        <v>-249.5</v>
+        <v>-173</v>
       </c>
       <c r="X29">
-        <v>908.5</v>
+        <v>1557</v>
       </c>
       <c r="Y29">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="Z29">
-        <v>-188.5</v>
+        <v>-177.5</v>
       </c>
       <c r="AA29">
-        <v>1663.5</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40999</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1663.5</v>
+        <v>1137.5</v>
       </c>
       <c r="D30">
-        <v>52594.5</v>
+        <v>53978.5</v>
       </c>
       <c r="E30">
-        <v>12432</v>
+        <v>17576</v>
       </c>
       <c r="F30">
-        <v>2014.5</v>
+        <v>1069</v>
       </c>
       <c r="G30">
-        <v>49726</v>
+        <v>46681</v>
       </c>
       <c r="H30">
-        <v>135593</v>
+        <v>93665</v>
       </c>
       <c r="I30">
-        <v>11709</v>
+        <v>18660</v>
       </c>
       <c r="J30">
-        <v>24204</v>
+        <v>20226</v>
       </c>
       <c r="K30">
-        <v>2290</v>
+        <v>4438</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3165,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>44414</v>
+        <v>33261</v>
       </c>
       <c r="O30">
-        <v>86138</v>
+        <v>58817</v>
       </c>
       <c r="P30">
-        <v>33987</v>
+        <v>29312</v>
       </c>
       <c r="Q30">
-        <v>78</v>
+        <v>93.5</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40999</v>
       </c>
       <c r="S30">
-        <v>145977</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>49455</v>
+        <v>34848</v>
       </c>
       <c r="U30">
-        <v>2124</v>
+        <v>1492</v>
       </c>
       <c r="V30">
-        <v>-43</v>
+        <v>1167.5</v>
       </c>
       <c r="W30">
-        <v>-249.5</v>
+        <v>-346</v>
       </c>
       <c r="X30">
-        <v>908.5</v>
+        <v>194</v>
       </c>
       <c r="Y30">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="Z30">
-        <v>-188.5</v>
+        <v>-96</v>
       </c>
       <c r="AA30">
-        <v>1663.5</v>
+        <v>1137.5</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>41090</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1388</v>
+        <v>1137.5</v>
       </c>
       <c r="D31">
-        <v>54277</v>
+        <v>53978.5</v>
       </c>
       <c r="E31">
-        <v>13048</v>
+        <v>17576</v>
       </c>
       <c r="F31">
-        <v>2509</v>
+        <v>1069</v>
       </c>
       <c r="G31">
-        <v>49816</v>
+        <v>46681</v>
       </c>
       <c r="H31">
-        <v>134464</v>
+        <v>93665</v>
       </c>
       <c r="I31">
-        <v>10707</v>
+        <v>18660</v>
       </c>
       <c r="J31">
-        <v>23777</v>
+        <v>20226</v>
       </c>
       <c r="K31">
-        <v>515</v>
+        <v>4438</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3248,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>45939</v>
+        <v>33261</v>
       </c>
       <c r="O31">
-        <v>86988</v>
+        <v>58817</v>
       </c>
       <c r="P31">
-        <v>33166</v>
+        <v>29312</v>
       </c>
       <c r="Q31">
-        <v>20.5</v>
+        <v>93.5</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>41090</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>47476</v>
+        <v>34848</v>
       </c>
       <c r="U31">
-        <v>2180</v>
+        <v>1492</v>
       </c>
       <c r="V31">
-        <v>2566.5</v>
+        <v>1167.5</v>
       </c>
       <c r="W31">
-        <v>-713.5</v>
+        <v>-346</v>
       </c>
       <c r="X31">
-        <v>-1299</v>
+        <v>194</v>
       </c>
       <c r="Y31">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="Z31">
-        <v>6</v>
+        <v>-96</v>
       </c>
       <c r="AA31">
-        <v>1388</v>
+        <v>1137.5</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>41182</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1388</v>
+        <v>-635.5</v>
       </c>
       <c r="D32">
-        <v>54277</v>
+        <v>53239.5</v>
       </c>
       <c r="E32">
-        <v>13048</v>
+        <v>19437</v>
       </c>
       <c r="F32">
-        <v>2509</v>
+        <v>931.5</v>
       </c>
       <c r="G32">
-        <v>49816</v>
+        <v>54112</v>
       </c>
       <c r="H32">
-        <v>134464</v>
+        <v>105564</v>
       </c>
       <c r="I32">
-        <v>10707</v>
+        <v>22987</v>
       </c>
       <c r="J32">
-        <v>23777</v>
+        <v>18795</v>
       </c>
       <c r="K32">
-        <v>515</v>
+        <v>10203</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3331,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>45939</v>
+        <v>47143</v>
       </c>
       <c r="O32">
-        <v>86988</v>
+        <v>71391</v>
       </c>
       <c r="P32">
-        <v>33166</v>
+        <v>38175</v>
       </c>
       <c r="Q32">
-        <v>20.5</v>
+        <v>645</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>41182</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>47476</v>
+        <v>34173</v>
       </c>
       <c r="U32">
-        <v>2180</v>
+        <v>2782</v>
       </c>
       <c r="V32">
-        <v>2566.5</v>
+        <v>1023</v>
       </c>
       <c r="W32">
-        <v>-713.5</v>
+        <v>-187</v>
       </c>
       <c r="X32">
-        <v>-1299</v>
+        <v>3123.5</v>
       </c>
       <c r="Y32">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>-209</v>
       </c>
       <c r="AA32">
-        <v>1388</v>
+        <v>-635.5</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>41274</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>316</v>
+        <v>-635.5</v>
       </c>
       <c r="D33">
-        <v>55985</v>
+        <v>53239.5</v>
       </c>
       <c r="E33">
-        <v>11180</v>
+        <v>19437</v>
       </c>
       <c r="F33">
-        <v>2019</v>
+        <v>931.5</v>
       </c>
       <c r="G33">
-        <v>44268</v>
+        <v>54112</v>
       </c>
       <c r="H33">
-        <v>128672</v>
+        <v>105564</v>
       </c>
       <c r="I33">
-        <v>10103</v>
+        <v>22987</v>
       </c>
       <c r="J33">
-        <v>26147</v>
+        <v>18795</v>
       </c>
       <c r="K33">
-        <v>2591</v>
+        <v>10203</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3414,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>40372</v>
+        <v>47143</v>
       </c>
       <c r="O33">
-        <v>83289</v>
+        <v>71391</v>
       </c>
       <c r="P33">
-        <v>35063</v>
+        <v>38175</v>
       </c>
       <c r="Q33">
-        <v>-71</v>
+        <v>645</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>41274</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="T33">
-        <v>45383</v>
+        <v>34173</v>
       </c>
       <c r="U33">
-        <v>2046</v>
+        <v>2782</v>
       </c>
       <c r="V33">
-        <v>3213</v>
+        <v>1023</v>
       </c>
       <c r="W33">
-        <v>-704.5</v>
+        <v>-187</v>
       </c>
       <c r="X33">
-        <v>-868</v>
+        <v>3123.5</v>
       </c>
       <c r="Y33">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="Z33">
-        <v>-7.5</v>
+        <v>-209</v>
       </c>
       <c r="AA33">
-        <v>316</v>
+        <v>-635.5</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>41364</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>316</v>
+        <v>-4693</v>
       </c>
       <c r="D34">
-        <v>55985</v>
+        <v>56017.5</v>
       </c>
       <c r="E34">
-        <v>11180</v>
+        <v>19334</v>
       </c>
       <c r="F34">
-        <v>2019</v>
+        <v>1029</v>
       </c>
       <c r="G34">
-        <v>44268</v>
+        <v>56313</v>
       </c>
       <c r="H34">
-        <v>128672</v>
+        <v>155922</v>
       </c>
       <c r="I34">
-        <v>10103</v>
+        <v>25222</v>
       </c>
       <c r="J34">
-        <v>26147</v>
+        <v>38360</v>
       </c>
       <c r="K34">
-        <v>2591</v>
+        <v>8020</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3497,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>40372</v>
+        <v>46875</v>
       </c>
       <c r="O34">
-        <v>83289</v>
+        <v>102449</v>
       </c>
       <c r="P34">
-        <v>35063</v>
+        <v>54537</v>
       </c>
       <c r="Q34">
-        <v>-71</v>
+        <v>371.5</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>41364</v>
       </c>
       <c r="S34">
-        <v>158000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>45383</v>
+        <v>53473</v>
       </c>
       <c r="U34">
-        <v>2046</v>
+        <v>3525</v>
       </c>
       <c r="V34">
-        <v>3213</v>
+        <v>3299</v>
       </c>
       <c r="W34">
-        <v>-704.5</v>
+        <v>-677.5</v>
       </c>
       <c r="X34">
-        <v>-868</v>
+        <v>-1519</v>
       </c>
       <c r="Y34">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="Z34">
-        <v>-7.5</v>
+        <v>-55</v>
       </c>
       <c r="AA34">
-        <v>316</v>
+        <v>-4693</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41455</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-4693</v>
       </c>
       <c r="D35">
-        <v>53714.5</v>
+        <v>56017.5</v>
       </c>
       <c r="E35">
-        <v>10923</v>
+        <v>19334</v>
       </c>
       <c r="F35">
-        <v>1389</v>
+        <v>1029</v>
       </c>
       <c r="G35">
-        <v>41674</v>
+        <v>56313</v>
       </c>
       <c r="H35">
-        <v>127183</v>
+        <v>155922</v>
       </c>
       <c r="I35">
-        <v>9019</v>
+        <v>25222</v>
       </c>
       <c r="J35">
-        <v>28386</v>
+        <v>38360</v>
       </c>
       <c r="K35">
-        <v>1197</v>
+        <v>8020</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3580,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>39632</v>
+        <v>46875</v>
       </c>
       <c r="O35">
-        <v>85637</v>
+        <v>102449</v>
       </c>
       <c r="P35">
-        <v>35849</v>
+        <v>54537</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>371.5</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41455</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>41546</v>
+        <v>53473</v>
       </c>
       <c r="U35">
-        <v>1838</v>
+        <v>3525</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>3299</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>-677.5</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>-1519</v>
       </c>
       <c r="Y35">
-        <v>1093</v>
+        <v>366</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="AA35">
-        <v>113</v>
+        <v>-4693</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41547</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>113</v>
+        <v>670</v>
       </c>
       <c r="D36">
-        <v>53714.5</v>
+        <v>60329.5</v>
       </c>
       <c r="E36">
-        <v>10923</v>
+        <v>18481</v>
       </c>
       <c r="F36">
-        <v>1389</v>
+        <v>1745.5</v>
       </c>
       <c r="G36">
-        <v>41674</v>
+        <v>59292</v>
       </c>
       <c r="H36">
-        <v>127183</v>
+        <v>154862</v>
       </c>
       <c r="I36">
-        <v>9019</v>
+        <v>25401</v>
       </c>
       <c r="J36">
-        <v>28386</v>
+        <v>38368</v>
       </c>
       <c r="K36">
-        <v>1197</v>
+        <v>7264</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3663,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>39632</v>
+        <v>46326</v>
       </c>
       <c r="O36">
-        <v>85637</v>
+        <v>102181</v>
       </c>
       <c r="P36">
-        <v>35849</v>
+        <v>55405</v>
       </c>
       <c r="Q36">
-        <v>-104</v>
+        <v>-338</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41547</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>41546</v>
+        <v>52681</v>
       </c>
       <c r="U36">
-        <v>1838</v>
+        <v>2849</v>
       </c>
       <c r="V36">
-        <v>2414</v>
+        <v>1293</v>
       </c>
       <c r="W36">
-        <v>-684</v>
+        <v>-353.5</v>
       </c>
       <c r="X36">
-        <v>-1697.5</v>
+        <v>308</v>
       </c>
       <c r="Y36">
-        <v>1093</v>
+        <v>344</v>
       </c>
       <c r="Z36">
-        <v>17.5</v>
+        <v>-17</v>
       </c>
       <c r="AA36">
-        <v>113</v>
+        <v>670</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41639</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-315</v>
+        <v>670</v>
       </c>
       <c r="D37">
-        <v>54006.5</v>
+        <v>60329.5</v>
       </c>
       <c r="E37">
-        <v>10590</v>
+        <v>18481</v>
       </c>
       <c r="F37">
-        <v>915</v>
+        <v>1745.5</v>
       </c>
       <c r="G37">
-        <v>41838</v>
+        <v>59292</v>
       </c>
       <c r="H37">
-        <v>124076</v>
+        <v>154862</v>
       </c>
       <c r="I37">
-        <v>10376</v>
+        <v>25401</v>
       </c>
       <c r="J37">
-        <v>27909</v>
+        <v>38368</v>
       </c>
       <c r="K37">
-        <v>1813</v>
+        <v>7264</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3746,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>39448</v>
+        <v>46326</v>
       </c>
       <c r="O37">
-        <v>84840</v>
+        <v>102181</v>
       </c>
       <c r="P37">
-        <v>37069</v>
+        <v>55405</v>
       </c>
       <c r="Q37">
-        <v>31.5</v>
+        <v>-338</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41639</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>110378</v>
       </c>
       <c r="T37">
-        <v>39236</v>
+        <v>52681</v>
       </c>
       <c r="U37">
-        <v>1899</v>
+        <v>2849</v>
       </c>
       <c r="V37">
-        <v>1950.5</v>
+        <v>1293</v>
       </c>
       <c r="W37">
-        <v>-671</v>
+        <v>-353.5</v>
       </c>
       <c r="X37">
-        <v>-876</v>
+        <v>308</v>
       </c>
       <c r="Y37">
-        <v>1158</v>
+        <v>344</v>
       </c>
       <c r="Z37">
-        <v>-20.5</v>
+        <v>-17</v>
       </c>
       <c r="AA37">
-        <v>-315</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41729</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-315</v>
+        <v>860</v>
       </c>
       <c r="D38">
-        <v>54006.5</v>
+        <v>57032</v>
       </c>
       <c r="E38">
-        <v>10590</v>
+        <v>17735</v>
       </c>
       <c r="F38">
-        <v>915</v>
+        <v>1865</v>
       </c>
       <c r="G38">
-        <v>41838</v>
+        <v>60725</v>
       </c>
       <c r="H38">
-        <v>124076</v>
+        <v>158839</v>
       </c>
       <c r="I38">
-        <v>10376</v>
+        <v>25675</v>
       </c>
       <c r="J38">
-        <v>27909</v>
+        <v>40410</v>
       </c>
       <c r="K38">
-        <v>1813</v>
+        <v>8367</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3829,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>39448</v>
+        <v>47609</v>
       </c>
       <c r="O38">
-        <v>84840</v>
+        <v>105683</v>
       </c>
       <c r="P38">
-        <v>37069</v>
+        <v>57859</v>
       </c>
       <c r="Q38">
-        <v>31.5</v>
+        <v>194</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41729</v>
       </c>
       <c r="S38">
-        <v>89092</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>39236</v>
+        <v>53156</v>
       </c>
       <c r="U38">
-        <v>1899</v>
+        <v>3237</v>
       </c>
       <c r="V38">
-        <v>1950.5</v>
+        <v>2218.5</v>
       </c>
       <c r="W38">
-        <v>-671</v>
+        <v>-728.5</v>
       </c>
       <c r="X38">
-        <v>-876</v>
+        <v>435</v>
       </c>
       <c r="Y38">
-        <v>1158</v>
+        <v>317</v>
       </c>
       <c r="Z38">
-        <v>-20.5</v>
+        <v>-198.5</v>
       </c>
       <c r="AA38">
-        <v>-315</v>
+        <v>860</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41820</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-1300</v>
+        <v>860</v>
       </c>
       <c r="D39">
-        <v>35480.5</v>
+        <v>57032</v>
       </c>
       <c r="E39">
-        <v>7329</v>
+        <v>17735</v>
       </c>
       <c r="F39">
-        <v>873.5</v>
+        <v>1865</v>
       </c>
       <c r="G39">
-        <v>37535</v>
+        <v>60725</v>
       </c>
       <c r="H39">
-        <v>111952</v>
+        <v>158839</v>
       </c>
       <c r="I39">
-        <v>9424</v>
+        <v>25675</v>
       </c>
       <c r="J39">
-        <v>25324</v>
+        <v>40410</v>
       </c>
       <c r="K39">
-        <v>3240</v>
+        <v>8367</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3912,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>37768</v>
+        <v>47609</v>
       </c>
       <c r="O39">
-        <v>79039</v>
+        <v>105683</v>
       </c>
       <c r="P39">
-        <v>38941</v>
+        <v>57859</v>
       </c>
       <c r="Q39">
-        <v>-234</v>
+        <v>194</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41820</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>32913</v>
+        <v>53156</v>
       </c>
       <c r="U39">
-        <v>1425</v>
+        <v>3237</v>
       </c>
       <c r="V39">
-        <v>-83</v>
+        <v>2218.5</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>-728.5</v>
       </c>
       <c r="X39">
-        <v>620.5</v>
+        <v>435</v>
       </c>
       <c r="Y39">
-        <v>1226</v>
+        <v>317</v>
       </c>
       <c r="Z39">
-        <v>-42</v>
+        <v>-198.5</v>
       </c>
       <c r="AA39">
-        <v>-1300</v>
+        <v>860</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41912</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-1300</v>
+        <v>294</v>
       </c>
       <c r="D40">
-        <v>35480.5</v>
+        <v>53504.5</v>
       </c>
       <c r="E40">
-        <v>7329</v>
+        <v>14825</v>
       </c>
       <c r="F40">
-        <v>873.5</v>
+        <v>1499.5</v>
       </c>
       <c r="G40">
-        <v>37535</v>
+        <v>53219</v>
       </c>
       <c r="H40">
-        <v>111952</v>
+        <v>152205</v>
       </c>
       <c r="I40">
-        <v>9424</v>
+        <v>25402</v>
       </c>
       <c r="J40">
-        <v>25324</v>
+        <v>40263</v>
       </c>
       <c r="K40">
-        <v>3240</v>
+        <v>4544</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +3995,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>37768</v>
+        <v>43947</v>
       </c>
       <c r="O40">
-        <v>79039</v>
+        <v>100725</v>
       </c>
       <c r="P40">
-        <v>38941</v>
+        <v>53152</v>
       </c>
       <c r="Q40">
-        <v>-234</v>
+        <v>-206.5</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41912</v>
       </c>
       <c r="S40">
-        <v>160000</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>32913</v>
+        <v>51480</v>
       </c>
       <c r="U40">
-        <v>1425</v>
+        <v>2824</v>
       </c>
       <c r="V40">
-        <v>-83</v>
+        <v>1849.5</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-393.5</v>
       </c>
       <c r="X40">
-        <v>620.5</v>
+        <v>-2500</v>
       </c>
       <c r="Y40">
-        <v>1226</v>
+        <v>425</v>
       </c>
       <c r="Z40">
-        <v>-42</v>
+        <v>43.5</v>
       </c>
       <c r="AA40">
-        <v>-1300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>42004</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>348.5</v>
+        <v>294</v>
       </c>
       <c r="D41">
-        <v>35688.5</v>
+        <v>53504.5</v>
       </c>
       <c r="E41">
-        <v>8116</v>
+        <v>14825</v>
       </c>
       <c r="F41">
-        <v>975.5</v>
+        <v>1499.5</v>
       </c>
       <c r="G41">
-        <v>43212</v>
+        <v>53219</v>
       </c>
       <c r="H41">
-        <v>118000</v>
+        <v>152205</v>
       </c>
       <c r="I41">
-        <v>11074</v>
+        <v>25402</v>
       </c>
       <c r="J41">
-        <v>28400</v>
+        <v>40263</v>
       </c>
       <c r="K41">
-        <v>2436</v>
+        <v>4544</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4078,2037 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>39441</v>
+        <v>43947</v>
       </c>
       <c r="O41">
-        <v>83598</v>
+        <v>100725</v>
       </c>
       <c r="P41">
-        <v>37660</v>
+        <v>53152</v>
       </c>
       <c r="Q41">
-        <v>32.5</v>
+        <v>-206.5</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>42004</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>106831</v>
       </c>
       <c r="T41">
-        <v>34402</v>
+        <v>51480</v>
       </c>
       <c r="U41">
-        <v>1498</v>
+        <v>2824</v>
       </c>
       <c r="V41">
-        <v>1415</v>
+        <v>1849.5</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-393.5</v>
       </c>
       <c r="X41">
-        <v>-780.5</v>
+        <v>-2500</v>
       </c>
       <c r="Y41">
-        <v>1008</v>
+        <v>425</v>
       </c>
       <c r="Z41">
-        <v>48.5</v>
+        <v>43.5</v>
       </c>
       <c r="AA41">
-        <v>348.5</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>42094</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-338</v>
+      </c>
+      <c r="D42">
+        <v>36928.5</v>
+      </c>
+      <c r="E42">
+        <v>13043</v>
+      </c>
+      <c r="F42">
+        <v>906.5</v>
+      </c>
+      <c r="G42">
+        <v>51294</v>
+      </c>
+      <c r="H42">
+        <v>148074</v>
+      </c>
+      <c r="I42">
+        <v>27286</v>
+      </c>
+      <c r="J42">
+        <v>38643</v>
+      </c>
+      <c r="K42">
+        <v>2545</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>45538</v>
+      </c>
+      <c r="O42">
+        <v>99726</v>
+      </c>
+      <c r="P42">
+        <v>50664</v>
+      </c>
+      <c r="Q42">
+        <v>119</v>
+      </c>
+      <c r="R42">
+        <v>42094</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>48348</v>
+      </c>
+      <c r="U42">
+        <v>3062</v>
+      </c>
+      <c r="V42">
+        <v>3753</v>
+      </c>
+      <c r="W42">
+        <v>-775.5</v>
+      </c>
+      <c r="X42">
+        <v>-2082.5</v>
+      </c>
+      <c r="Y42">
+        <v>431</v>
+      </c>
+      <c r="Z42">
+        <v>-75.5</v>
+      </c>
+      <c r="AA42">
+        <v>-338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-338</v>
+      </c>
+      <c r="D43">
+        <v>36928.5</v>
+      </c>
+      <c r="E43">
+        <v>13043</v>
+      </c>
+      <c r="F43">
+        <v>906.5</v>
+      </c>
+      <c r="G43">
+        <v>51294</v>
+      </c>
+      <c r="H43">
+        <v>148074</v>
+      </c>
+      <c r="I43">
+        <v>27286</v>
+      </c>
+      <c r="J43">
+        <v>38643</v>
+      </c>
+      <c r="K43">
+        <v>2545</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>45538</v>
+      </c>
+      <c r="O43">
+        <v>99726</v>
+      </c>
+      <c r="P43">
+        <v>50664</v>
+      </c>
+      <c r="Q43">
+        <v>119</v>
+      </c>
+      <c r="R43">
+        <v>42185</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>48348</v>
+      </c>
+      <c r="U43">
+        <v>3062</v>
+      </c>
+      <c r="V43">
+        <v>3753</v>
+      </c>
+      <c r="W43">
+        <v>-775.5</v>
+      </c>
+      <c r="X43">
+        <v>-2082.5</v>
+      </c>
+      <c r="Y43">
+        <v>431</v>
+      </c>
+      <c r="Z43">
+        <v>-75.5</v>
+      </c>
+      <c r="AA43">
+        <v>-338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-2144</v>
+      </c>
+      <c r="D44">
+        <v>36747</v>
+      </c>
+      <c r="E44">
+        <v>10589</v>
+      </c>
+      <c r="F44">
+        <v>502.5</v>
+      </c>
+      <c r="G44">
+        <v>42198</v>
+      </c>
+      <c r="H44">
+        <v>128485</v>
+      </c>
+      <c r="I44">
+        <v>22404</v>
+      </c>
+      <c r="J44">
+        <v>32556</v>
+      </c>
+      <c r="K44">
+        <v>3559</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>40872</v>
+      </c>
+      <c r="O44">
+        <v>87142</v>
+      </c>
+      <c r="P44">
+        <v>44189</v>
+      </c>
+      <c r="Q44">
+        <v>-177.5</v>
+      </c>
+      <c r="R44">
+        <v>42277</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>41343</v>
+      </c>
+      <c r="U44">
+        <v>2707</v>
+      </c>
+      <c r="V44">
+        <v>2856</v>
+      </c>
+      <c r="W44">
+        <v>-388.5</v>
+      </c>
+      <c r="X44">
+        <v>-1946.5</v>
+      </c>
+      <c r="Y44">
+        <v>376</v>
+      </c>
+      <c r="Z44">
+        <v>-22</v>
+      </c>
+      <c r="AA44">
+        <v>-2144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-2144</v>
+      </c>
+      <c r="D45">
+        <v>36747</v>
+      </c>
+      <c r="E45">
+        <v>10589</v>
+      </c>
+      <c r="F45">
+        <v>502.5</v>
+      </c>
+      <c r="G45">
+        <v>42198</v>
+      </c>
+      <c r="H45">
+        <v>128485</v>
+      </c>
+      <c r="I45">
+        <v>22404</v>
+      </c>
+      <c r="J45">
+        <v>32556</v>
+      </c>
+      <c r="K45">
+        <v>3559</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>40872</v>
+      </c>
+      <c r="O45">
+        <v>87142</v>
+      </c>
+      <c r="P45">
+        <v>44189</v>
+      </c>
+      <c r="Q45">
+        <v>-177.5</v>
+      </c>
+      <c r="R45">
+        <v>42369</v>
+      </c>
+      <c r="S45">
+        <v>156468</v>
+      </c>
+      <c r="T45">
+        <v>41343</v>
+      </c>
+      <c r="U45">
+        <v>2707</v>
+      </c>
+      <c r="V45">
+        <v>2856</v>
+      </c>
+      <c r="W45">
+        <v>-388.5</v>
+      </c>
+      <c r="X45">
+        <v>-1946.5</v>
+      </c>
+      <c r="Y45">
+        <v>376</v>
+      </c>
+      <c r="Z45">
+        <v>-22</v>
+      </c>
+      <c r="AA45">
+        <v>-2144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-184.5</v>
+      </c>
+      <c r="D46">
+        <v>34712.5</v>
+      </c>
+      <c r="E46">
+        <v>8482</v>
+      </c>
+      <c r="F46">
+        <v>300.5</v>
+      </c>
+      <c r="G46">
+        <v>46811</v>
+      </c>
+      <c r="H46">
+        <v>127854</v>
+      </c>
+      <c r="I46">
+        <v>21125</v>
+      </c>
+      <c r="J46">
+        <v>29223</v>
+      </c>
+      <c r="K46">
+        <v>3596</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>43793</v>
+      </c>
+      <c r="O46">
+        <v>86815</v>
+      </c>
+      <c r="P46">
+        <v>38590</v>
+      </c>
+      <c r="Q46">
+        <v>-9.5</v>
+      </c>
+      <c r="R46">
+        <v>42460</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>41039</v>
+      </c>
+      <c r="U46">
+        <v>2535</v>
+      </c>
+      <c r="V46">
+        <v>1750</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-1247</v>
+      </c>
+      <c r="Y46">
+        <v>363</v>
+      </c>
+      <c r="Z46">
+        <v>3</v>
+      </c>
+      <c r="AA46">
+        <v>-184.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-184.5</v>
+      </c>
+      <c r="D47">
+        <v>34712.5</v>
+      </c>
+      <c r="E47">
+        <v>8482</v>
+      </c>
+      <c r="F47">
+        <v>300.5</v>
+      </c>
+      <c r="G47">
+        <v>46811</v>
+      </c>
+      <c r="H47">
+        <v>127854</v>
+      </c>
+      <c r="I47">
+        <v>21125</v>
+      </c>
+      <c r="J47">
+        <v>29223</v>
+      </c>
+      <c r="K47">
+        <v>3596</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>43793</v>
+      </c>
+      <c r="O47">
+        <v>86815</v>
+      </c>
+      <c r="P47">
+        <v>38590</v>
+      </c>
+      <c r="Q47">
+        <v>-9.5</v>
+      </c>
+      <c r="R47">
+        <v>42551</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>41039</v>
+      </c>
+      <c r="U47">
+        <v>2535</v>
+      </c>
+      <c r="V47">
+        <v>1750</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-1247</v>
+      </c>
+      <c r="Y47">
+        <v>363</v>
+      </c>
+      <c r="Z47">
+        <v>3</v>
+      </c>
+      <c r="AA47">
+        <v>-184.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>874</v>
+      </c>
+      <c r="D48">
+        <v>41761.5</v>
+      </c>
+      <c r="E48">
+        <v>10926</v>
+      </c>
+      <c r="F48">
+        <v>1292</v>
+      </c>
+      <c r="G48">
+        <v>43412</v>
+      </c>
+      <c r="H48">
+        <v>124600</v>
+      </c>
+      <c r="I48">
+        <v>25105</v>
+      </c>
+      <c r="J48">
+        <v>22862</v>
+      </c>
+      <c r="K48">
+        <v>2990</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>43367</v>
+      </c>
+      <c r="O48">
+        <v>80819</v>
+      </c>
+      <c r="P48">
+        <v>33261</v>
+      </c>
+      <c r="Q48">
+        <v>-90</v>
+      </c>
+      <c r="R48">
+        <v>42643</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>43781</v>
+      </c>
+      <c r="U48">
+        <v>2518</v>
+      </c>
+      <c r="V48">
+        <v>666.5</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-3067.5</v>
+      </c>
+      <c r="Y48">
+        <v>326</v>
+      </c>
+      <c r="Z48">
+        <v>-9</v>
+      </c>
+      <c r="AA48">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>874</v>
+      </c>
+      <c r="D49">
+        <v>41761.5</v>
+      </c>
+      <c r="E49">
+        <v>10926</v>
+      </c>
+      <c r="F49">
+        <v>1292</v>
+      </c>
+      <c r="G49">
+        <v>43412</v>
+      </c>
+      <c r="H49">
+        <v>124600</v>
+      </c>
+      <c r="I49">
+        <v>25105</v>
+      </c>
+      <c r="J49">
+        <v>22862</v>
+      </c>
+      <c r="K49">
+        <v>2990</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>43367</v>
+      </c>
+      <c r="O49">
+        <v>80819</v>
+      </c>
+      <c r="P49">
+        <v>33261</v>
+      </c>
+      <c r="Q49">
+        <v>-90</v>
+      </c>
+      <c r="R49">
+        <v>42735</v>
+      </c>
+      <c r="S49">
+        <v>154832</v>
+      </c>
+      <c r="T49">
+        <v>43781</v>
+      </c>
+      <c r="U49">
+        <v>2518</v>
+      </c>
+      <c r="V49">
+        <v>666.5</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-3067.5</v>
+      </c>
+      <c r="Y49">
+        <v>326</v>
+      </c>
+      <c r="Z49">
+        <v>-9</v>
+      </c>
+      <c r="AA49">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1225</v>
+      </c>
+      <c r="D50">
+        <v>50143.5</v>
+      </c>
+      <c r="E50">
+        <v>9753</v>
+      </c>
+      <c r="F50">
+        <v>1876</v>
+      </c>
+      <c r="G50">
+        <v>39377</v>
+      </c>
+      <c r="H50">
+        <v>119098</v>
+      </c>
+      <c r="I50">
+        <v>23408</v>
+      </c>
+      <c r="J50">
+        <v>22685</v>
+      </c>
+      <c r="K50">
+        <v>1826</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>37445</v>
+      </c>
+      <c r="O50">
+        <v>74957</v>
+      </c>
+      <c r="P50">
+        <v>30446</v>
+      </c>
+      <c r="Q50">
+        <v>-258</v>
+      </c>
+      <c r="R50">
+        <v>42825</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>44141</v>
+      </c>
+      <c r="U50">
+        <v>1973</v>
+      </c>
+      <c r="V50">
+        <v>2451.5</v>
+      </c>
+      <c r="W50">
+        <v>-249.5</v>
+      </c>
+      <c r="X50">
+        <v>-2241</v>
+      </c>
+      <c r="Y50">
+        <v>322</v>
+      </c>
+      <c r="Z50">
+        <v>17.5</v>
+      </c>
+      <c r="AA50">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1225</v>
+      </c>
+      <c r="D51">
+        <v>50143.5</v>
+      </c>
+      <c r="E51">
+        <v>9753</v>
+      </c>
+      <c r="F51">
+        <v>1876</v>
+      </c>
+      <c r="G51">
+        <v>39377</v>
+      </c>
+      <c r="H51">
+        <v>119098</v>
+      </c>
+      <c r="I51">
+        <v>23408</v>
+      </c>
+      <c r="J51">
+        <v>22685</v>
+      </c>
+      <c r="K51">
+        <v>1826</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>37445</v>
+      </c>
+      <c r="O51">
+        <v>74957</v>
+      </c>
+      <c r="P51">
+        <v>30446</v>
+      </c>
+      <c r="Q51">
+        <v>-258</v>
+      </c>
+      <c r="R51">
+        <v>42916</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>44141</v>
+      </c>
+      <c r="U51">
+        <v>1973</v>
+      </c>
+      <c r="V51">
+        <v>2451.5</v>
+      </c>
+      <c r="W51">
+        <v>-249.5</v>
+      </c>
+      <c r="X51">
+        <v>-2241</v>
+      </c>
+      <c r="Y51">
+        <v>322</v>
+      </c>
+      <c r="Z51">
+        <v>17.5</v>
+      </c>
+      <c r="AA51">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>1663.5</v>
+      </c>
+      <c r="D52">
+        <v>52594.5</v>
+      </c>
+      <c r="E52">
+        <v>12432</v>
+      </c>
+      <c r="F52">
+        <v>2014.5</v>
+      </c>
+      <c r="G52">
+        <v>49726</v>
+      </c>
+      <c r="H52">
+        <v>135593</v>
+      </c>
+      <c r="I52">
+        <v>11709</v>
+      </c>
+      <c r="J52">
+        <v>24204</v>
+      </c>
+      <c r="K52">
+        <v>2290</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>44414</v>
+      </c>
+      <c r="O52">
+        <v>86138</v>
+      </c>
+      <c r="P52">
+        <v>33987</v>
+      </c>
+      <c r="Q52">
+        <v>78</v>
+      </c>
+      <c r="R52">
+        <v>43008</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>49455</v>
+      </c>
+      <c r="U52">
+        <v>2124</v>
+      </c>
+      <c r="V52">
+        <v>-43</v>
+      </c>
+      <c r="W52">
+        <v>-249.5</v>
+      </c>
+      <c r="X52">
+        <v>908.5</v>
+      </c>
+      <c r="Y52">
+        <v>328</v>
+      </c>
+      <c r="Z52">
+        <v>-188.5</v>
+      </c>
+      <c r="AA52">
+        <v>1663.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1663.5</v>
+      </c>
+      <c r="D53">
+        <v>52594.5</v>
+      </c>
+      <c r="E53">
+        <v>12432</v>
+      </c>
+      <c r="F53">
+        <v>2014.5</v>
+      </c>
+      <c r="G53">
+        <v>49726</v>
+      </c>
+      <c r="H53">
+        <v>135593</v>
+      </c>
+      <c r="I53">
+        <v>11709</v>
+      </c>
+      <c r="J53">
+        <v>24204</v>
+      </c>
+      <c r="K53">
+        <v>2290</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>44414</v>
+      </c>
+      <c r="O53">
+        <v>86138</v>
+      </c>
+      <c r="P53">
+        <v>33987</v>
+      </c>
+      <c r="Q53">
+        <v>78</v>
+      </c>
+      <c r="R53">
+        <v>43100</v>
+      </c>
+      <c r="S53">
+        <v>145977</v>
+      </c>
+      <c r="T53">
+        <v>49455</v>
+      </c>
+      <c r="U53">
+        <v>2124</v>
+      </c>
+      <c r="V53">
+        <v>-43</v>
+      </c>
+      <c r="W53">
+        <v>-249.5</v>
+      </c>
+      <c r="X53">
+        <v>908.5</v>
+      </c>
+      <c r="Y53">
+        <v>328</v>
+      </c>
+      <c r="Z53">
+        <v>-188.5</v>
+      </c>
+      <c r="AA53">
+        <v>1663.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>1388</v>
+      </c>
+      <c r="D54">
+        <v>54277</v>
+      </c>
+      <c r="E54">
+        <v>13048</v>
+      </c>
+      <c r="F54">
+        <v>2509</v>
+      </c>
+      <c r="G54">
+        <v>49816</v>
+      </c>
+      <c r="H54">
+        <v>134464</v>
+      </c>
+      <c r="I54">
+        <v>10707</v>
+      </c>
+      <c r="J54">
+        <v>23777</v>
+      </c>
+      <c r="K54">
+        <v>515</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>45939</v>
+      </c>
+      <c r="O54">
+        <v>86988</v>
+      </c>
+      <c r="P54">
+        <v>33166</v>
+      </c>
+      <c r="Q54">
+        <v>20.5</v>
+      </c>
+      <c r="R54">
+        <v>43190</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>47476</v>
+      </c>
+      <c r="U54">
+        <v>2180</v>
+      </c>
+      <c r="V54">
+        <v>2566.5</v>
+      </c>
+      <c r="W54">
+        <v>-713.5</v>
+      </c>
+      <c r="X54">
+        <v>-1299</v>
+      </c>
+      <c r="Y54">
+        <v>318</v>
+      </c>
+      <c r="Z54">
+        <v>6</v>
+      </c>
+      <c r="AA54">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1388</v>
+      </c>
+      <c r="D55">
+        <v>54277</v>
+      </c>
+      <c r="E55">
+        <v>13048</v>
+      </c>
+      <c r="F55">
+        <v>2509</v>
+      </c>
+      <c r="G55">
+        <v>49816</v>
+      </c>
+      <c r="H55">
+        <v>134464</v>
+      </c>
+      <c r="I55">
+        <v>10707</v>
+      </c>
+      <c r="J55">
+        <v>23777</v>
+      </c>
+      <c r="K55">
+        <v>515</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>45939</v>
+      </c>
+      <c r="O55">
+        <v>86988</v>
+      </c>
+      <c r="P55">
+        <v>33166</v>
+      </c>
+      <c r="Q55">
+        <v>20.5</v>
+      </c>
+      <c r="R55">
+        <v>43281</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>47476</v>
+      </c>
+      <c r="U55">
+        <v>2180</v>
+      </c>
+      <c r="V55">
+        <v>2566.5</v>
+      </c>
+      <c r="W55">
+        <v>-713.5</v>
+      </c>
+      <c r="X55">
+        <v>-1299</v>
+      </c>
+      <c r="Y55">
+        <v>318</v>
+      </c>
+      <c r="Z55">
+        <v>6</v>
+      </c>
+      <c r="AA55">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>316</v>
+      </c>
+      <c r="D56">
+        <v>55985</v>
+      </c>
+      <c r="E56">
+        <v>11180</v>
+      </c>
+      <c r="F56">
+        <v>2019</v>
+      </c>
+      <c r="G56">
+        <v>44268</v>
+      </c>
+      <c r="H56">
+        <v>128672</v>
+      </c>
+      <c r="I56">
+        <v>10103</v>
+      </c>
+      <c r="J56">
+        <v>26147</v>
+      </c>
+      <c r="K56">
+        <v>2591</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>40372</v>
+      </c>
+      <c r="O56">
+        <v>83289</v>
+      </c>
+      <c r="P56">
+        <v>35063</v>
+      </c>
+      <c r="Q56">
+        <v>-71</v>
+      </c>
+      <c r="R56">
+        <v>43373</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>45383</v>
+      </c>
+      <c r="U56">
+        <v>2046</v>
+      </c>
+      <c r="V56">
+        <v>3213</v>
+      </c>
+      <c r="W56">
+        <v>-704.5</v>
+      </c>
+      <c r="X56">
+        <v>-868</v>
+      </c>
+      <c r="Y56">
+        <v>277</v>
+      </c>
+      <c r="Z56">
+        <v>-7.5</v>
+      </c>
+      <c r="AA56">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>316</v>
+      </c>
+      <c r="D57">
+        <v>55985</v>
+      </c>
+      <c r="E57">
+        <v>17666</v>
+      </c>
+      <c r="F57">
+        <v>2019</v>
+      </c>
+      <c r="G57">
+        <v>44016</v>
+      </c>
+      <c r="H57">
+        <v>128672</v>
+      </c>
+      <c r="I57">
+        <v>26484</v>
+      </c>
+      <c r="J57">
+        <v>26424</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>39281</v>
+      </c>
+      <c r="O57">
+        <v>83289</v>
+      </c>
+      <c r="P57">
+        <v>34994</v>
+      </c>
+      <c r="Q57">
+        <v>-71</v>
+      </c>
+      <c r="R57">
+        <v>43465</v>
+      </c>
+      <c r="S57">
+        <v>158000</v>
+      </c>
+      <c r="T57">
+        <v>45383</v>
+      </c>
+      <c r="U57">
+        <v>2046</v>
+      </c>
+      <c r="V57">
+        <v>3213</v>
+      </c>
+      <c r="W57">
+        <v>-704.5</v>
+      </c>
+      <c r="X57">
+        <v>-868</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-7.5</v>
+      </c>
+      <c r="AA57">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>53714.5</v>
+      </c>
+      <c r="E58">
+        <v>10923</v>
+      </c>
+      <c r="F58">
+        <v>1389</v>
+      </c>
+      <c r="G58">
+        <v>41674</v>
+      </c>
+      <c r="H58">
+        <v>127183</v>
+      </c>
+      <c r="I58">
+        <v>9019</v>
+      </c>
+      <c r="J58">
+        <v>28386</v>
+      </c>
+      <c r="K58">
+        <v>1197</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>39632</v>
+      </c>
+      <c r="O58">
+        <v>85637</v>
+      </c>
+      <c r="P58">
+        <v>35849</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>43555</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>41546</v>
+      </c>
+      <c r="U58">
+        <v>1838</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>1093</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>113</v>
+      </c>
+      <c r="D59">
+        <v>53714.5</v>
+      </c>
+      <c r="E59">
+        <v>10923</v>
+      </c>
+      <c r="F59">
+        <v>1389</v>
+      </c>
+      <c r="G59">
+        <v>41674</v>
+      </c>
+      <c r="H59">
+        <v>127183</v>
+      </c>
+      <c r="I59">
+        <v>9019</v>
+      </c>
+      <c r="J59">
+        <v>28386</v>
+      </c>
+      <c r="K59">
+        <v>1197</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>39632</v>
+      </c>
+      <c r="O59">
+        <v>85637</v>
+      </c>
+      <c r="P59">
+        <v>35849</v>
+      </c>
+      <c r="Q59">
+        <v>-104</v>
+      </c>
+      <c r="R59">
+        <v>43646</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>41546</v>
+      </c>
+      <c r="U59">
+        <v>1838</v>
+      </c>
+      <c r="V59">
+        <v>2414</v>
+      </c>
+      <c r="W59">
+        <v>-684</v>
+      </c>
+      <c r="X59">
+        <v>-1697.5</v>
+      </c>
+      <c r="Y59">
+        <v>1093</v>
+      </c>
+      <c r="Z59">
+        <v>17.5</v>
+      </c>
+      <c r="AA59">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>53841</v>
+      </c>
+      <c r="E60">
+        <v>10558</v>
+      </c>
+      <c r="F60">
+        <v>984</v>
+      </c>
+      <c r="G60">
+        <v>41410</v>
+      </c>
+      <c r="H60">
+        <v>124076</v>
+      </c>
+      <c r="I60">
+        <v>10376</v>
+      </c>
+      <c r="J60">
+        <v>27935</v>
+      </c>
+      <c r="K60">
+        <v>1813</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>39008</v>
+      </c>
+      <c r="O60">
+        <v>84840</v>
+      </c>
+      <c r="P60">
+        <v>37069</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>43738</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>39236</v>
+      </c>
+      <c r="U60">
+        <v>1899</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>1158</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>-315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-315</v>
+      </c>
+      <c r="D61">
+        <v>53841</v>
+      </c>
+      <c r="E61">
+        <v>10558</v>
+      </c>
+      <c r="F61">
+        <v>984</v>
+      </c>
+      <c r="G61">
+        <v>41410</v>
+      </c>
+      <c r="H61">
+        <v>124076</v>
+      </c>
+      <c r="I61">
+        <v>10376</v>
+      </c>
+      <c r="J61">
+        <v>27935</v>
+      </c>
+      <c r="K61">
+        <v>1813</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>39008</v>
+      </c>
+      <c r="O61">
+        <v>84840</v>
+      </c>
+      <c r="P61">
+        <v>37069</v>
+      </c>
+      <c r="Q61">
+        <v>31.5</v>
+      </c>
+      <c r="R61">
+        <v>43830</v>
+      </c>
+      <c r="S61">
+        <v>89092</v>
+      </c>
+      <c r="T61">
+        <v>39236</v>
+      </c>
+      <c r="U61">
+        <v>1899</v>
+      </c>
+      <c r="V61">
+        <v>1950.5</v>
+      </c>
+      <c r="W61">
+        <v>-671</v>
+      </c>
+      <c r="X61">
+        <v>-876</v>
+      </c>
+      <c r="Y61">
+        <v>1158</v>
+      </c>
+      <c r="Z61">
+        <v>-20.5</v>
+      </c>
+      <c r="AA61">
+        <v>-315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-1300</v>
+      </c>
+      <c r="D62">
+        <v>35480.5</v>
+      </c>
+      <c r="E62">
+        <v>7329</v>
+      </c>
+      <c r="F62">
+        <v>873.5</v>
+      </c>
+      <c r="G62">
+        <v>37535</v>
+      </c>
+      <c r="H62">
+        <v>111952</v>
+      </c>
+      <c r="I62">
+        <v>9424</v>
+      </c>
+      <c r="J62">
+        <v>25324</v>
+      </c>
+      <c r="K62">
+        <v>3240</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>37768</v>
+      </c>
+      <c r="O62">
+        <v>79039</v>
+      </c>
+      <c r="P62">
+        <v>38941</v>
+      </c>
+      <c r="Q62">
+        <v>-234</v>
+      </c>
+      <c r="R62">
+        <v>43921</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>32913</v>
+      </c>
+      <c r="U62">
+        <v>1425</v>
+      </c>
+      <c r="V62">
+        <v>-83</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>620.5</v>
+      </c>
+      <c r="Y62">
+        <v>1226</v>
+      </c>
+      <c r="Z62">
+        <v>-42</v>
+      </c>
+      <c r="AA62">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-1300</v>
+      </c>
+      <c r="D63">
+        <v>35480.5</v>
+      </c>
+      <c r="E63">
+        <v>7329</v>
+      </c>
+      <c r="F63">
+        <v>873.5</v>
+      </c>
+      <c r="G63">
+        <v>37535</v>
+      </c>
+      <c r="H63">
+        <v>111952</v>
+      </c>
+      <c r="I63">
+        <v>9424</v>
+      </c>
+      <c r="J63">
+        <v>25324</v>
+      </c>
+      <c r="K63">
+        <v>3240</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>37768</v>
+      </c>
+      <c r="O63">
+        <v>79039</v>
+      </c>
+      <c r="P63">
+        <v>38941</v>
+      </c>
+      <c r="Q63">
+        <v>-234</v>
+      </c>
+      <c r="R63">
+        <v>44012</v>
+      </c>
+      <c r="S63">
+        <v>160000</v>
+      </c>
+      <c r="T63">
+        <v>32913</v>
+      </c>
+      <c r="U63">
+        <v>1425</v>
+      </c>
+      <c r="V63">
+        <v>-83</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>620.5</v>
+      </c>
+      <c r="Y63">
+        <v>1226</v>
+      </c>
+      <c r="Z63">
+        <v>-42</v>
+      </c>
+      <c r="AA63">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
         <v>348.5</v>
       </c>
-      <c r="D42">
+      <c r="D64">
         <v>35688.5</v>
       </c>
-      <c r="E42">
+      <c r="E64">
         <v>8116</v>
       </c>
-      <c r="F42">
+      <c r="F64">
         <v>975.5</v>
       </c>
-      <c r="G42">
+      <c r="G64">
         <v>43212</v>
       </c>
-      <c r="H42">
+      <c r="H64">
         <v>118000</v>
       </c>
-      <c r="I42">
+      <c r="I64">
         <v>11074</v>
       </c>
-      <c r="J42">
+      <c r="J64">
         <v>28400</v>
       </c>
-      <c r="K42">
+      <c r="K64">
         <v>2436</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
         <v>39441</v>
       </c>
-      <c r="O42">
+      <c r="O64">
         <v>83598</v>
       </c>
-      <c r="P42">
+      <c r="P64">
         <v>37660</v>
       </c>
-      <c r="Q42">
+      <c r="Q64">
         <v>32.5</v>
       </c>
-      <c r="R42">
+      <c r="R64">
+        <v>44104</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>34402</v>
+      </c>
+      <c r="U64">
+        <v>1498</v>
+      </c>
+      <c r="V64">
+        <v>1415</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-780.5</v>
+      </c>
+      <c r="Y64">
+        <v>1008</v>
+      </c>
+      <c r="Z64">
+        <v>48.5</v>
+      </c>
+      <c r="AA64">
+        <v>348.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>145000</v>
-      </c>
-      <c r="T42">
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>348.5</v>
+      </c>
+      <c r="D65">
+        <v>35688.5</v>
+      </c>
+      <c r="E65">
+        <v>8116</v>
+      </c>
+      <c r="F65">
+        <v>975.5</v>
+      </c>
+      <c r="G65">
+        <v>43212</v>
+      </c>
+      <c r="H65">
+        <v>118000</v>
+      </c>
+      <c r="I65">
+        <v>11074</v>
+      </c>
+      <c r="J65">
+        <v>28400</v>
+      </c>
+      <c r="K65">
+        <v>2436</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>39441</v>
+      </c>
+      <c r="O65">
+        <v>83598</v>
+      </c>
+      <c r="P65">
+        <v>37660</v>
+      </c>
+      <c r="Q65">
+        <v>32.5</v>
+      </c>
+      <c r="R65">
+        <v>44196</v>
+      </c>
+      <c r="S65">
+        <v>87822</v>
+      </c>
+      <c r="T65">
         <v>34402</v>
       </c>
-      <c r="U42">
+      <c r="U65">
         <v>1498</v>
       </c>
-      <c r="V42">
+      <c r="V65">
         <v>1415</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
         <v>-780.5</v>
       </c>
-      <c r="Y42">
+      <c r="Y65">
         <v>1008</v>
       </c>
-      <c r="Z42">
+      <c r="Z65">
         <v>48.5</v>
       </c>
-      <c r="AA42">
+      <c r="AA65">
         <v>348.5</v>
       </c>
     </row>
